--- a/biology/Zoologie/Akalat_à_sourcils_noirs/Akalat_à_sourcils_noirs.xlsx
+++ b/biology/Zoologie/Akalat_à_sourcils_noirs/Akalat_à_sourcils_noirs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_sourcils_noirs</t>
+          <t>Akalat_à_sourcils_noirs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malacocincla perspicillata
-L’Akalat à sourcils noirs (Malacocincla perspicillata) est une espèce de passereau de la famille des Pellorneidae. L'espèce a été décrite par Charles-Lucien Bonaparte en 1850 à partir d'un unique spécimen trouvé au XIXe siècle. Pendant plus de 170 ans l'espèce n'est connue que par ce spécimen holotype, jusqu'à ce qu'un spécimen vivant soit capturé et photographié à Bornéo en octobre 2020, confirmant ainsi que l'espèce existait toujours[1].
+L’Akalat à sourcils noirs (Malacocincla perspicillata) est une espèce de passereau de la famille des Pellorneidae. L'espèce a été décrite par Charles-Lucien Bonaparte en 1850 à partir d'un unique spécimen trouvé au XIXe siècle. Pendant plus de 170 ans l'espèce n'est connue que par ce spécimen holotype, jusqu'à ce qu'un spécimen vivant soit capturé et photographié à Bornéo en octobre 2020, confirmant ainsi que l'espèce existait toujours.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_sourcils_noirs</t>
+          <t>Akalat_à_sourcils_noirs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_sourcils_noirs</t>
+          <t>Akalat_à_sourcils_noirs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,9 +552,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Akalat à sourcils noirs mesure environ 16 cm de long. Le dessus du corps et de la tête sont brun, le dessous est grisâtre. L'œil est surmonté d'un « sourcil » noir. Les yeux du spécimen naturalisé sont de couleur jaune et ses pattes brunâtres mais ceux du spécimen observés en 2020 sont rouge sombre et ses pattes grises[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Akalat à sourcils noirs mesure environ 16 cm de long. Le dessus du corps et de la tête sont brun, le dessous est grisâtre. L'œil est surmonté d'un « sourcil » noir. Les yeux du spécimen naturalisé sont de couleur jaune et ses pattes brunâtres mais ceux du spécimen observés en 2020 sont rouge sombre et ses pattes grises.
 </t>
         </is>
       </c>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_sourcils_noirs</t>
+          <t>Akalat_à_sourcils_noirs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,9 +585,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Akalat à sourcils noirs est endémique à l'Indonésie et probablement de l'île de Bornéo alors qu'initialement le seul spécimen connu avait été erronément indiqué comme provenant de l'île de Java[2]. En octobre 2020 un spécimen a été observé dans la province du Kalimantan du Sud par une équipe d'ornithologues menés par Panji Gusti Akbar[2],[1],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Akalat à sourcils noirs est endémique à l'Indonésie et probablement de l'île de Bornéo alors qu'initialement le seul spécimen connu avait été erronément indiqué comme provenant de l'île de Java. En octobre 2020 un spécimen a été observé dans la province du Kalimantan du Sud par une équipe d'ornithologues menés par Panji Gusti Akbar.
 L'espèce habite les forêts humides tropicales et subtropicales de basse altitude.
 </t>
         </is>
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_sourcils_noirs</t>
+          <t>Akalat_à_sourcils_noirs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,6 +620,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -609,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_sourcils_noirs</t>
+          <t>Akalat_à_sourcils_noirs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -628,6 +648,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
